--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -28,10 +28,10 @@
 2.适用专业：必填字段，且系统中已存在；
 3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
 4.生效状态：必填字段，且只能填："未生效"、"生效"；
-5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，反之不是必填字段；
+5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型反之不是必填字段；
 6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
 7.层级类型：必填字段，只能填："一级"，"子级"
-8.父级：当层级类型填了"一级"，为必填字段，填一级的名称
+8.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容
 9.是否为巡视项目，必填项，只能填："是","否"</t>
   </si>
   <si>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -611,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,34 +629,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,98 +665,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1133,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1245,13 +1254,13 @@
       <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="6" t="s">

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>巡检标准表数据模板</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>巡检标准表数据</t>
   </si>
   <si>
     <t>巡检标准表数据
@@ -26,13 +26,14 @@
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.是否与设备类型相关：必填字段，且只能填："是"、"否"；
-4.生效状态：必填字段，且只能填："未生效"、"生效"；
-5.设备类型名称：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型反之不是必填字段；
-6.配置项：组件非必填，如果需要添加配置项，则标红的字段必填；
-7.层级类型：必填字段，只能填："一级"，"子级"
-8.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容
-9.是否为巡视项目，必填项，只能填："是","否"</t>
+3.适用子系统：非必填，若填写，则必须是专业下的子系统；
+4.是否与设备类型相关：必填字段，且只能填："是"、"否"；
+5.生效状态：必填字段，且只能填："未生效"、"生效"；
+6.设备类型：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型名称，反之不是必填字段；
+7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
+8.层级类型：必填字段，只能填："一级"，"子级"，填"一级"，则父级字段可不用填；
+9.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容；
+10.是否为巡视项目，必填项，只能填："是"、"否"；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -41,6 +42,9 @@
     <t>适用专业</t>
   </si>
   <si>
+    <t>适用子系统</t>
+  </si>
+  <si>
     <t>是否与设备类型相关</t>
   </si>
   <si>
@@ -84,6 +88,9 @@
   </si>
   <si>
     <t>t.majorName</t>
+  </si>
+  <si>
+    <t>t.systemName</t>
   </si>
   <si>
     <t>t.isdeviceType</t>
@@ -759,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +777,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1130,27 +1140,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="9" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="23.625" customWidth="1"/>
-    <col min="16" max="17" width="10.875" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="21" max="21" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="17" max="18" width="10.875" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="22" max="22" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1184,9 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" ht="192" customHeight="1" spans="1:20">
+    <row r="2" ht="214" customHeight="1" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1197,15 +1209,16 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1217,125 +1230,133 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="N5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="G3:N3"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="H3:O3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -14,26 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>巡检标准表数据</t>
   </si>
   <si>
-    <t>巡检标准表数据
+    <t xml:space="preserve">"巡检标准表数据
 填写须知：
-1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；其次删除填写的数据，要直接删除整行，不然导入会失败
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.适用子系统：非必填，若填写，则必须是专业下的子系统；
-4.是否与设备类型相关：必填字段，且只能填："是"、"否"；
-5.生效状态：必填字段，且只能填："未生效"、"生效"；
-6.设备类型：当“是否与设备类型相关”中填了“是”，为必填字段，所填的必须是该专业下的设备类型名称，反之不是必填字段；
+3.适用子系统：非必填，如果选择，则只能是该专业下的子系统
+4.是否与设备类型相关：必填字段，且只能选：""是""、""否""；
+5.生效状态：必填字段，且只能选：""启用""、""停用""；
+6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
 7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
-8.层级类型：必填字段，只能填："一级"，"子级"，填"一级"，则父级字段可不用填；
-9.父级：当层级类型填了"子级"，为必填字段，填一级的巡检项的内容；
-10.是否为巡视项目，必填项，只能填："是"、"否"；</t>
+8.层级类型：必填字段，只能选：""一级""，""子级""
+9.父级：必填字段，当层级类型填了""一级""，父级则只能填""无""，当层级类型填""一级""，则父级填写的是对应一级的巡视项内容
+10.是否为巡视项目，必填项，只能选：""是"",""否"",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写
+11.内容排序：非必填，填写只能是数字
+12.关联数据字典：非必填，当检查值类型选中""选择项""，可以填写，反之不用填写
+13.数据校验表达式：非必填，当检查值类型选中""输入项""，可以填写，反之不用填写
+14.层级类型注意：子级类型的数据，在""是否为巡视项目""里，只能选""是""；
+15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选""是""，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，设备类型只能选择该专业的子系统下的设备类型"                    
+</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -81,6 +87,18 @@
     <t>质量标准</t>
   </si>
   <si>
+    <t>检查值类型</t>
+  </si>
+  <si>
+    <t>检查值是否必填</t>
+  </si>
+  <si>
+    <t>关联数据字典</t>
+  </si>
+  <si>
+    <t>数据校验表达式</t>
+  </si>
+  <si>
     <t>配置项错误原因</t>
   </si>
   <si>
@@ -124,6 +142,18 @@
   </si>
   <si>
     <t>t.qualityStandard</t>
+  </si>
+  <si>
+    <t>t.checkValue</t>
+  </si>
+  <si>
+    <t>t.isCheck</t>
+  </si>
+  <si>
+    <t>t.dictCode</t>
+  </si>
+  <si>
+    <t>t.regular</t>
   </si>
   <si>
     <t>t.itemParentMistake}}</t>
@@ -766,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,17 +809,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1154,14 +1181,18 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="10" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="15" max="15" width="23.625" customWidth="1"/>
-    <col min="17" max="18" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="22" max="22" width="23.25" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
+    <col min="21" max="22" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="26" max="26" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,8 +1216,12 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" ht="214" customHeight="1" spans="1:21">
+    <row r="2" ht="271" customHeight="1" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1210,15 +1245,19 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1243,113 +1282,140 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:26">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="P4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="H3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>巡检标准表数据</t>
   </si>
@@ -51,6 +51,12 @@
     <t>适用子系统</t>
   </si>
   <si>
+    <t>适用部门</t>
+  </si>
+  <si>
+    <t>标准表类型</t>
+  </si>
+  <si>
     <t>是否与设备类型相关</t>
   </si>
   <si>
@@ -109,6 +115,12 @@
   </si>
   <si>
     <t>t.systemName</t>
+  </si>
+  <si>
+    <t>t.orgName</t>
+  </si>
+  <si>
+    <t>t.standardTypeName</t>
   </si>
   <si>
     <t>t.isdeviceType</t>
@@ -796,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,9 +822,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1167,32 +1182,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="10" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="14.375" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="21" max="22" width="10.875" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="26" max="26" width="23.25" customWidth="1"/>
+    <col min="3" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="12" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="14.375" customWidth="1"/>
+    <col min="21" max="21" width="19.5" customWidth="1"/>
+    <col min="23" max="24" width="10.875" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="28" max="28" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1235,10 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" ht="271" customHeight="1" spans="1:25">
+    <row r="2" ht="271" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1249,8 +1266,10 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1272,11 +1291,15 @@
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1286,136 +1309,146 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="T4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:28">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="H3:S3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="J3:U3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1423,6 +1456,8 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -19,27 +19,28 @@
     <t>巡检标准表数据</t>
   </si>
   <si>
-    <t xml:space="preserve">"巡检标准表数据
+    <t>巡检标准表数据
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；其次删除填写的数据，要直接删除整行，不然导入会失败
 2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 字段说明：
 1.巡视标准表名称：必填字段；
 2.适用专业：必填字段，且系统中已存在；
-3.适用子系统：非必填，如果选择，则只能是该专业下的子系统
-4.是否与设备类型相关：必填字段，且只能选：""是""、""否""；
-5.生效状态：必填字段，且只能选：""启用""、""停用""；
-6.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
-7.配置项：非必填，如果需要添加配置项，则标红的字段必填；
-8.层级类型：必填字段，只能选：""一级""，""子级""
-9.父级：必填字段，当层级类型填了""一级""，父级则只能填""无""，当层级类型填""一级""，则父级填写的是对应一级的巡视项内容
-10.是否为巡视项目，必填项，只能选：""是"",""否"",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写
-11.内容排序：非必填，填写只能是数字
-12.关联数据字典：非必填，当检查值类型选中""选择项""，可以填写，反之不用填写
-13.数据校验表达式：非必填，当检查值类型选中""输入项""，可以填写，反之不用填写
-14.层级类型注意：子级类型的数据，在""是否为巡视项目""里，只能选""是""；
-15.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选""是""，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，设备类型只能选择该专业的子系统下的设备类型"                    
-</t>
+3.适用子系统：非必填，如果选择，则只能是该专业下的子系统；
+4.适用部门：必填字段，多个部门使用中文逗号"，"隔开；
+5.标准表类型：必填字段，且只能选："应急"、"车载"、"正线"、"车辆段"；
+6.是否与设备类型相关：必填字段，且只能选："是"、"否"；选择"是"，设备类型必填，反之不用填写；
+7.生效状态：必填字段，且只能选："生效"、"未生效"；
+8.设备类型：非必填，当“是否与设备类型相关”中选择“是”，为必填字段，反之不是必填字段；
+9.配置项：非必填，如果需要添加配置项，则标红的字段必填；
+10.层级类型：必填字段，只能选："一级"，"子级"；
+11.父级：必填字段，当层级类型选了"一级"，父级则只能填"无"，当层级类型选"子级"，则父级填写的是对应一级的巡视项内容；
+12.是否为巡视项目，必填项，只能选："是","否",填写否，则质量标准、检查值类型、检查值是否必填、关联数据字典、数据校验表达式不用填写，反之可以填写；
+13.内容排序：非必填，填写只能是数字；
+14.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
+15.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
+16.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
+17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -808,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,7 +1183,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1238,7 +1236,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" ht="271" customHeight="1" spans="1:27">
+    <row r="2" ht="303" customHeight="1" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1311,138 +1309,138 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>巡检标准表数据</t>
   </si>
@@ -40,7 +40,8 @@
 14.关联数据字典：非必填，当检查值类型选中"选择项"，可以填写，反之不用填写；
 15.数据校验表达式：非必填，当检查值类型选中"输入项"，可以填写，反之不用填写；
 16.层级类型注意：子级类型的数据，在"是否为巡视项目"里，只能选"是"；
-17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；</t>
+17.设备类型选择需要注意：当适用专业选择、是否与设备类型相关选"是"，设备类型只能选择该专业下的设备类型；当适用专业、适用子系统都选择，是否与设备类型相关选"是"，设备类型只能选择该专业的子系统下的设备类型；
+18.注：#，代表数值；&amp;，代表文本；$，代表时间；在上输入框内输入检查内容，需要填写具体的检查值时用占位表示；占位由特殊字符 # 或 &amp; 或 $ 组成；比如电压#V,特殊字符#代表需要填的检查值；不同的字符代表不同的类型；</t>
   </si>
   <si>
     <t>巡视标准表名称</t>
@@ -106,6 +107,12 @@
     <t>数据校验表达式</t>
   </si>
   <si>
+    <t>检查值</t>
+  </si>
+  <si>
+    <t>程序及方法</t>
+  </si>
+  <si>
     <t>配置项错误原因</t>
   </si>
   <si>
@@ -167,6 +174,12 @@
   </si>
   <si>
     <t>t.regular</t>
+  </si>
+  <si>
+    <t>t.specialCharacters</t>
+  </si>
+  <si>
+    <t>t.procMethods</t>
   </si>
   <si>
     <t>t.itemParentMistake}}</t>
@@ -175,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -209,34 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -250,14 +235,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +279,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -347,7 +339,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,49 +381,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,121 +519,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,21 +572,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,6 +604,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,148 +677,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,52 +848,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1180,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1199,13 +1212,13 @@
     <col min="18" max="18" width="13.875" customWidth="1"/>
     <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="20" max="20" width="14.375" customWidth="1"/>
-    <col min="21" max="21" width="19.5" customWidth="1"/>
-    <col min="23" max="24" width="10.875" customWidth="1"/>
-    <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="28" max="28" width="23.25" customWidth="1"/>
+    <col min="21" max="23" width="19.5" customWidth="1"/>
+    <col min="25" max="26" width="10.875" customWidth="1"/>
+    <col min="28" max="28" width="15" customWidth="1"/>
+    <col min="30" max="30" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1248,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
-    <row r="2" ht="303" customHeight="1" spans="1:27">
+    <row r="2" ht="319" customHeight="1" spans="1:29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1266,8 +1281,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1309,15 +1326,17 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1362,91 +1381,103 @@
       <c r="U4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:AA1"/>
-    <mergeCell ref="A2:AA2"/>
-    <mergeCell ref="J3:U3"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="J3:W3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>

--- a/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/patrolstandardError.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="巡检标准表错误模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>巡检标准表数据</t>
   </si>
@@ -113,6 +126,9 @@
     <t>程序及方法</t>
   </si>
   <si>
+    <t>巡检结果关联的数据字典</t>
+  </si>
+  <si>
     <t>配置项错误原因</t>
   </si>
   <si>
@@ -180,6 +196,9 @@
   </si>
   <si>
     <t>t.procMethods</t>
+  </si>
+  <si>
+    <t>t.resultDictCode</t>
   </si>
   <si>
     <t>t.itemParentMistake}}</t>
@@ -188,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1193,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1212,13 +1231,15 @@
     <col min="18" max="18" width="13.875" customWidth="1"/>
     <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="20" max="20" width="14.375" customWidth="1"/>
-    <col min="21" max="23" width="19.5" customWidth="1"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
-    <col min="30" max="30" width="23.25" customWidth="1"/>
+    <col min="21" max="22" width="19.5" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="19.5" customWidth="1"/>
+    <col min="26" max="27" width="10.875" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="31" max="31" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,8 +1271,9 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" ht="319" customHeight="1" spans="1:29">
+    <row r="2" ht="319" customHeight="1" spans="1:30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1283,8 +1305,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1328,15 +1351,16 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="7"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1384,100 +1408,106 @@
       <c r="V4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:AD2"/>
+    <mergeCell ref="J3:X3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
